--- a/src/main/resources/template/excel/export/costPriceAdjustSkuTemp.xlsx
+++ b/src/main/resources/template/excel/export/costPriceAdjustSkuTemp.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -14,27 +19,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>货号</t>
   </si>
   <si>
     <t>新价</t>
   </si>
+  <si>
+    <t>不含税新价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,151 +66,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,198 +88,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -428,330 +116,52 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -765,7 +175,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>85090</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name=" 2"/>
         <xdr:cNvSpPr/>
@@ -959,13 +369,6 @@
             </a:rPr>
             <a:t>正式使用时，需删掉本说明和表中例子，栏位说明：                  </a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" b="1" u="sng">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -997,13 +400,6 @@
             </a:rPr>
             <a:t>必填，未填导入失败。</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -1035,13 +431,6 @@
             </a:rPr>
             <a:t>未填时，导入后默认为旧价。</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -1354,51 +743,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:B100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:2">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="7">
         <v>330048</v>
       </c>
       <c r="B2" s="8">
         <v>12.23</v>
       </c>
+      <c r="C2" s="8">
+        <v>11.23</v>
+      </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1"/>
-    <row r="4" ht="13.5" customHeight="1"/>
-    <row r="5" ht="13.5" customHeight="1"/>
-    <row r="6" ht="13.5" customHeight="1"/>
-    <row r="7" ht="13.5" customHeight="1"/>
-    <row r="8" ht="13.5" customHeight="1"/>
-    <row r="9" ht="13.5" customHeight="1"/>
-    <row r="10" ht="13.5" customHeight="1"/>
-    <row r="11" ht="13.5" customHeight="1"/>
-    <row r="12" ht="13.5" customHeight="1"/>
-    <row r="13" ht="13.5" customHeight="1"/>
-    <row r="14" ht="13.5" customHeight="1"/>
-    <row r="15" ht="13.5" customHeight="1"/>
-    <row r="16" ht="13.5" customHeight="1"/>
+    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1"/>
     <row r="18" ht="13.5" customHeight="1"/>
     <row r="19" ht="13.5" customHeight="1"/>
@@ -1484,9 +878,9 @@
     <row r="99" ht="13.5" customHeight="1"/>
     <row r="100" ht="13.5" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>